--- a/新建 Microsoft Excel Worksheet.xlsx
+++ b/新建 Microsoft Excel Worksheet.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\956 doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\956_doc_git_v\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C1CE36-3DFF-42FA-8DCB-F3D7AE0BA886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFC616-9BF0-490F-9B31-C5EF84AC6E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5055" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="97">
   <si>
     <t>Decimal Bit-width of Feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +373,46 @@
   </si>
   <si>
     <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Segment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8700k without Paarallelism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8700k with Parallelism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8700k without Parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +434,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -421,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,10 +491,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -794,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
@@ -1046,16 +1100,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="M8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1447,11 +1501,11 @@
       </c>
     </row>
     <row r="24" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
       <c r="M24" s="7" t="s">
         <v>70</v>
       </c>
@@ -1460,11 +1514,11 @@
       </c>
     </row>
     <row r="25" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="8" t="s">
         <v>3</v>
       </c>
@@ -1645,16 +1699,16 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="10">
         <v>0.25</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="10">
         <v>0.09</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="10">
         <v>0.12</v>
       </c>
       <c r="U32" t="s">
@@ -1663,10 +1717,10 @@
       <c r="V32" t="s">
         <v>82</v>
       </c>
-      <c r="W32" s="11" t="s">
+      <c r="W32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="X32" s="11" t="s">
+      <c r="X32" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1693,16 +1747,16 @@
       <c r="P33">
         <v>2</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="10">
         <v>0.47</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="10">
         <v>0.26</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="10">
         <v>0.1</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="10">
         <v>0.23</v>
       </c>
       <c r="U33" t="s">
@@ -1738,10 +1792,10 @@
         <v>18</v>
       </c>
       <c r="N34" s="9"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
     </row>
     <row r="35" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E35" s="6" t="s">
@@ -1816,19 +1870,19 @@
       <c r="G38" s="3">
         <v>1</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="8" t="s">
         <v>3</v>
       </c>
@@ -2107,4 +2161,299 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF13074-9BC7-49F6-BBA8-EAC85E1545C3}">
+  <dimension ref="A2:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="13">
+        <v>9.43</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3.08</v>
+      </c>
+      <c r="D4" s="13">
+        <v>114.58</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="13">
+        <v>127.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="15">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="13">
+        <v>38.03</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="13">
+        <v>127.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="13">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3.48</v>
+      </c>
+      <c r="D21" s="13">
+        <v>126.62</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="13">
+        <v>139.63999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="15">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A19:H19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>